--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Galp-Galr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Galp-Galr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Galr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +528,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -552,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2299333333333333</v>
+        <v>1.257301333333333</v>
       </c>
       <c r="N2">
-        <v>0.6898</v>
+        <v>3.771904</v>
       </c>
       <c r="O2">
-        <v>0.07986766375042015</v>
+        <v>0.5503138561234041</v>
       </c>
       <c r="P2">
-        <v>0.07986766375042015</v>
+        <v>0.5503138561234042</v>
       </c>
       <c r="Q2">
-        <v>0.03399204104444444</v>
+        <v>0.1858723044124444</v>
       </c>
       <c r="R2">
-        <v>0.3059283694</v>
+        <v>1.672850739712</v>
       </c>
       <c r="S2">
-        <v>0.07986766375042015</v>
+        <v>0.5503138561234041</v>
       </c>
       <c r="T2">
-        <v>0.07986766375042015</v>
+        <v>0.5503138561234042</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -614,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.257301333333333</v>
+        <v>0.364727</v>
       </c>
       <c r="N3">
-        <v>3.771904</v>
+        <v>1.094181</v>
       </c>
       <c r="O3">
-        <v>0.4367253702100098</v>
+        <v>0.159638995426968</v>
       </c>
       <c r="P3">
-        <v>0.4367253702100098</v>
+        <v>0.159638995426968</v>
       </c>
       <c r="Q3">
-        <v>0.1858723044124444</v>
+        <v>0.05391917289366666</v>
       </c>
       <c r="R3">
-        <v>1.672850739712</v>
+        <v>0.4852725560429999</v>
       </c>
       <c r="S3">
-        <v>0.4367253702100098</v>
+        <v>0.159638995426968</v>
       </c>
       <c r="T3">
-        <v>0.4367253702100098</v>
+        <v>0.159638995426968</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.35038</v>
+        <v>0.3637273333333333</v>
       </c>
       <c r="N4">
-        <v>1.05114</v>
+        <v>1.091182</v>
       </c>
       <c r="O4">
-        <v>0.1217049812621291</v>
+        <v>0.1592014468428805</v>
       </c>
       <c r="P4">
-        <v>0.1217049812621291</v>
+        <v>0.1592014468428805</v>
       </c>
       <c r="Q4">
-        <v>0.05179819371333332</v>
+        <v>0.05377138783844444</v>
       </c>
       <c r="R4">
-        <v>0.46618374342</v>
+        <v>0.483942490546</v>
       </c>
       <c r="S4">
-        <v>0.1217049812621291</v>
+        <v>0.1592014468428805</v>
       </c>
       <c r="T4">
-        <v>0.1217049812621291</v>
+        <v>0.1592014468428805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,96 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.303624</v>
+        <v>0.298943</v>
       </c>
       <c r="N5">
-        <v>0.910872</v>
+        <v>0.896829</v>
       </c>
       <c r="O5">
-        <v>0.105464219506629</v>
+        <v>0.1308457016067473</v>
       </c>
       <c r="P5">
-        <v>0.105464219506629</v>
+        <v>0.1308457016067473</v>
       </c>
       <c r="Q5">
-        <v>0.04488605162399999</v>
+        <v>0.04419403910966666</v>
       </c>
       <c r="R5">
-        <v>0.403974464616</v>
+        <v>0.397746351987</v>
       </c>
       <c r="S5">
-        <v>0.105464219506629</v>
+        <v>0.1308457016067473</v>
       </c>
       <c r="T5">
-        <v>0.105464219506629</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1478343333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.443503</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.7376903333333332</v>
-      </c>
-      <c r="N6">
-        <v>2.213071</v>
-      </c>
-      <c r="O6">
-        <v>0.2562377652708119</v>
-      </c>
-      <c r="P6">
-        <v>0.2562377652708119</v>
-      </c>
-      <c r="Q6">
-        <v>0.1090559586347778</v>
-      </c>
-      <c r="R6">
-        <v>0.9815036277129998</v>
-      </c>
-      <c r="S6">
-        <v>0.2562377652708119</v>
-      </c>
-      <c r="T6">
-        <v>0.2562377652708119</v>
+        <v>0.1308457016067473</v>
       </c>
     </row>
   </sheetData>
